--- a/文档/开发文档/dptms项目开发计划和进度.xlsx
+++ b/文档/开发文档/dptms项目开发计划和进度.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="31" uniqueCount="31">
   <si>
     <r>
       <rPr>
@@ -206,6 +206,149 @@
         <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">完成注册中心模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">【配置中心】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">完成配置中心</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">【common】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">完成公共配置和工具类开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">【整体】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">完成开发结构设计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">【认证中心】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">完成系统认证授权功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">【系统管理】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">权限增删改查</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">角色增删改查</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">菜单增删改查</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">用户增删改查</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -6991,12 +7134,24 @@
     <row r="4" spans="1:27">
       <c r="A4" s="51"/>
       <c r="B4" s="52"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
+      <c r="C4" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="49" t="n">
+        <v>44032.0</v>
+      </c>
+      <c r="G4" s="49" t="n">
+        <v>44033.0</v>
+      </c>
+      <c r="H4" s="50" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I4" s="26"/>
       <c r="J4" s="42" t="s">
         <v>12</v>
@@ -7022,12 +7177,24 @@
     <row r="5" spans="1:27">
       <c r="A5" s="51"/>
       <c r="B5" s="52"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="C5" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="49" t="n">
+        <v>44033.0</v>
+      </c>
+      <c r="G5" s="49" t="n">
+        <v>44034.0</v>
+      </c>
+      <c r="H5" s="50" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -7051,12 +7218,24 @@
     <row r="6" spans="1:27">
       <c r="A6" s="51"/>
       <c r="B6" s="52"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="C6" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="49" t="n">
+        <v>44035.0</v>
+      </c>
+      <c r="G6" s="49" t="n">
+        <v>44037.0</v>
+      </c>
+      <c r="H6" s="50" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -7081,11 +7260,19 @@
       <c r="A7" s="51"/>
       <c r="B7" s="52"/>
       <c r="C7" s="46"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="D7" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="49" t="n">
+        <v>44038.0</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
@@ -7110,11 +7297,17 @@
       <c r="A8" s="51"/>
       <c r="B8" s="52"/>
       <c r="C8" s="46"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
+      <c r="D8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
@@ -7139,11 +7332,17 @@
       <c r="A9" s="51"/>
       <c r="B9" s="52"/>
       <c r="C9" s="46"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
+      <c r="D9" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
@@ -7168,11 +7367,17 @@
       <c r="A10" s="51"/>
       <c r="B10" s="52"/>
       <c r="C10" s="46"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
+      <c r="D10" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
@@ -7197,11 +7402,17 @@
       <c r="A11" s="51"/>
       <c r="B11" s="52"/>
       <c r="C11" s="46"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+      <c r="D11" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>

--- a/文档/开发文档/dptms项目开发计划和进度.xlsx
+++ b/文档/开发文档/dptms项目开发计划和进度.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="36" uniqueCount="36">
   <si>
     <r>
       <rPr>
@@ -304,6 +304,50 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
+      <t xml:space="preserve">重写认证中心认证方式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">【网关】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">配置网关信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">完善微服务架构配置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
       <t xml:space="preserve">【系统管理】</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
@@ -326,7 +370,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">角色增删改查</t>
+      <t xml:space="preserve">角色增删改查，权限绑定</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -337,7 +381,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">菜单增删改查</t>
+      <t xml:space="preserve">菜单增删改查，角色绑定</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -348,7 +392,17 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">用户增删改查</t>
+      <t xml:space="preserve">用户增删改查，菜单绑定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">组织增删改查，用户分配组织</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -749,7 +803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,9 +970,6 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="true" applyFont="false" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="8" borderId="1" applyNumberFormat="true" applyFont="false" applyBorder="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -7231,7 +7282,7 @@
         <v>44035.0</v>
       </c>
       <c r="G6" s="49" t="n">
-        <v>44037.0</v>
+        <v>44039.0</v>
       </c>
       <c r="H6" s="50" t="n">
         <v>1.0</v>
@@ -7259,7 +7310,9 @@
     <row r="7" spans="1:27">
       <c r="A7" s="51"/>
       <c r="B7" s="52"/>
-      <c r="C7" s="46"/>
+      <c r="C7" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="47" t="s">
         <v>24</v>
       </c>
@@ -7267,11 +7320,13 @@
         <v>25</v>
       </c>
       <c r="F7" s="49" t="n">
-        <v>44038.0</v>
+        <v>44039.0</v>
       </c>
-      <c r="G7" s="49"/>
+      <c r="G7" s="49" t="n">
+        <v>44043.0</v>
+      </c>
       <c r="H7" s="50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
@@ -7296,17 +7351,23 @@
     <row r="8" spans="1:27">
       <c r="A8" s="51"/>
       <c r="B8" s="52"/>
-      <c r="C8" s="46"/>
+      <c r="C8" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="48" t="s">
-        <v>27</v>
+      <c r="F8" s="49" t="n">
+        <v>44043.0</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
+      <c r="G8" s="49" t="n">
+        <v>44045.0</v>
+      </c>
       <c r="H8" s="50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
@@ -7331,17 +7392,23 @@
     <row r="9" spans="1:27">
       <c r="A9" s="51"/>
       <c r="B9" s="52"/>
-      <c r="C9" s="46"/>
+      <c r="C9" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" s="47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
+      <c r="F9" s="49" t="n">
+        <v>44045.0</v>
+      </c>
+      <c r="G9" s="49" t="n">
+        <v>44046.0</v>
+      </c>
       <c r="H9" s="50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
@@ -7366,17 +7433,21 @@
     <row r="10" spans="1:27">
       <c r="A10" s="51"/>
       <c r="B10" s="52"/>
-      <c r="C10" s="46"/>
+      <c r="C10" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="D10" s="47" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="49" t="n">
+        <v>44046.0</v>
+      </c>
       <c r="G10" s="49"/>
       <c r="H10" s="50" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
@@ -7403,10 +7474,10 @@
       <c r="B11" s="52"/>
       <c r="C11" s="46"/>
       <c r="D11" s="47" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
@@ -7437,11 +7508,17 @@
       <c r="A12" s="51"/>
       <c r="B12" s="52"/>
       <c r="C12" s="46"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="D12" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
@@ -7466,11 +7543,17 @@
       <c r="A13" s="51"/>
       <c r="B13" s="52"/>
       <c r="C13" s="46"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
+      <c r="D13" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
@@ -7495,11 +7578,17 @@
       <c r="A14" s="51"/>
       <c r="B14" s="52"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -7524,11 +7613,17 @@
       <c r="A15" s="51"/>
       <c r="B15" s="52"/>
       <c r="C15" s="46"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
+      <c r="D15" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -9122,7 +9217,7 @@
       <c r="D70" s="36"/>
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
-      <c r="G70" s="56"/>
+      <c r="G70" s="38"/>
       <c r="H70" s="39"/>
       <c r="I70" s="26"/>
       <c r="J70" s="26"/>
@@ -14226,7 +14321,7 @@
       <c r="D246" s="27"/>
       <c r="E246" s="27"/>
       <c r="F246" s="27"/>
-      <c r="G246" s="27"/>
+      <c r="G246" s="38"/>
       <c r="H246" s="27"/>
       <c r="I246" s="27"/>
       <c r="J246" s="27"/>
@@ -14255,7 +14350,7 @@
       <c r="D247" s="27"/>
       <c r="E247" s="27"/>
       <c r="F247" s="27"/>
-      <c r="G247" s="27"/>
+      <c r="G247" s="38"/>
       <c r="H247" s="27"/>
       <c r="I247" s="27"/>
       <c r="J247" s="27"/>
@@ -14284,7 +14379,7 @@
       <c r="D248" s="27"/>
       <c r="E248" s="27"/>
       <c r="F248" s="27"/>
-      <c r="G248" s="27"/>
+      <c r="G248" s="38"/>
       <c r="H248" s="27"/>
       <c r="I248" s="27"/>
       <c r="J248" s="27"/>
@@ -14313,7 +14408,7 @@
       <c r="D249" s="27"/>
       <c r="E249" s="27"/>
       <c r="F249" s="27"/>
-      <c r="G249" s="27"/>
+      <c r="G249" s="38"/>
       <c r="H249" s="27"/>
       <c r="I249" s="27"/>
       <c r="J249" s="27"/>
@@ -14342,7 +14437,7 @@
       <c r="D250" s="27"/>
       <c r="E250" s="27"/>
       <c r="F250" s="27"/>
-      <c r="G250" s="27"/>
+      <c r="G250" s="38"/>
       <c r="H250" s="27"/>
       <c r="I250" s="27"/>
       <c r="J250" s="27"/>
@@ -14371,7 +14466,7 @@
       <c r="D251" s="27"/>
       <c r="E251" s="27"/>
       <c r="F251" s="27"/>
-      <c r="G251" s="27"/>
+      <c r="G251" s="38"/>
       <c r="H251" s="27"/>
       <c r="I251" s="27"/>
       <c r="J251" s="27"/>
@@ -14400,7 +14495,7 @@
       <c r="D252" s="27"/>
       <c r="E252" s="27"/>
       <c r="F252" s="27"/>
-      <c r="G252" s="27"/>
+      <c r="G252" s="38"/>
       <c r="H252" s="27"/>
       <c r="I252" s="27"/>
       <c r="J252" s="27"/>
@@ -14429,7 +14524,7 @@
       <c r="D253" s="27"/>
       <c r="E253" s="27"/>
       <c r="F253" s="27"/>
-      <c r="G253" s="27"/>
+      <c r="G253" s="38"/>
       <c r="H253" s="27"/>
       <c r="I253" s="27"/>
       <c r="J253" s="27"/>
@@ -14458,7 +14553,7 @@
       <c r="D254" s="27"/>
       <c r="E254" s="27"/>
       <c r="F254" s="27"/>
-      <c r="G254" s="27"/>
+      <c r="G254" s="38"/>
       <c r="H254" s="27"/>
       <c r="I254" s="27"/>
       <c r="J254" s="27"/>
@@ -14487,7 +14582,7 @@
       <c r="D255" s="27"/>
       <c r="E255" s="27"/>
       <c r="F255" s="27"/>
-      <c r="G255" s="27"/>
+      <c r="G255" s="38"/>
       <c r="H255" s="27"/>
       <c r="I255" s="27"/>
       <c r="J255" s="27"/>

--- a/文档/开发文档/dptms项目开发计划和进度.xlsx
+++ b/文档/开发文档/dptms项目开发计划和进度.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="40" uniqueCount="40">
   <si>
     <r>
       <rPr>
@@ -348,6 +348,50 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
+      <t xml:space="preserve">【服务监控面板】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">添加SBA服务监控面板</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">添加权限校验</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">服务安全配置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
       <t xml:space="preserve">【系统管理】</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
@@ -415,7 +459,7 @@
     <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -532,6 +576,12 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <name val="Microsoft YaHei"/>
+      <family val="0"/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -601,7 +651,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -797,13 +847,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,6 +1062,24 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="true" applyFont="false" applyBorder="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="8" borderId="15" applyNumberFormat="true" applyFont="false" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="8" borderId="16" applyNumberFormat="true" applyFont="false" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="8" borderId="17" applyNumberFormat="true" applyFont="false" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7445,9 +7554,11 @@
       <c r="F10" s="49" t="n">
         <v>44046.0</v>
       </c>
-      <c r="G10" s="49"/>
+      <c r="G10" s="49" t="n">
+        <v>44053.0</v>
+      </c>
       <c r="H10" s="50" t="n">
-        <v>0.4</v>
+        <v>1.0</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
@@ -7472,17 +7583,23 @@
     <row r="11" spans="1:27">
       <c r="A11" s="51"/>
       <c r="B11" s="52"/>
-      <c r="C11" s="46"/>
+      <c r="C11" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="47" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="F11" s="49" t="n">
+        <v>44054.0</v>
+      </c>
+      <c r="G11" s="49" t="n">
+        <v>44055.0</v>
+      </c>
       <c r="H11" s="50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
@@ -7507,14 +7624,18 @@
     <row r="12" spans="1:27">
       <c r="A12" s="51"/>
       <c r="B12" s="52"/>
-      <c r="C12" s="46"/>
+      <c r="C12" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="D12" s="47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="49"/>
+      <c r="F12" s="49" t="n">
+        <v>44055.0</v>
+      </c>
       <c r="G12" s="49"/>
       <c r="H12" s="50" t="n">
         <v>0.0</v>
@@ -7542,9 +7663,11 @@
     <row r="13" spans="1:27">
       <c r="A13" s="51"/>
       <c r="B13" s="52"/>
-      <c r="C13" s="46"/>
+      <c r="C13" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="47" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>33</v>
@@ -7579,10 +7702,10 @@
       <c r="B14" s="52"/>
       <c r="C14" s="46"/>
       <c r="D14" s="47" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="49"/>
       <c r="G14" s="49"/>
@@ -7614,10 +7737,10 @@
       <c r="B15" s="52"/>
       <c r="C15" s="46"/>
       <c r="D15" s="47" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
@@ -7648,11 +7771,17 @@
       <c r="A16" s="51"/>
       <c r="B16" s="52"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
+      <c r="D16" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
@@ -7677,11 +7806,17 @@
       <c r="A17" s="51"/>
       <c r="B17" s="52"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
+      <c r="D17" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
@@ -7706,11 +7841,17 @@
       <c r="A18" s="51"/>
       <c r="B18" s="52"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
+      <c r="D18" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
@@ -14263,7 +14404,7 @@
       <c r="D244" s="36"/>
       <c r="E244" s="37"/>
       <c r="F244" s="38"/>
-      <c r="G244" s="38"/>
+      <c r="G244" s="56"/>
       <c r="H244" s="36"/>
       <c r="I244" s="26"/>
       <c r="J244" s="26"/>
@@ -14291,9 +14432,9 @@
       <c r="C245" s="36"/>
       <c r="D245" s="36"/>
       <c r="E245" s="37"/>
-      <c r="F245" s="38"/>
-      <c r="G245" s="38"/>
-      <c r="H245" s="36"/>
+      <c r="F245" s="57"/>
+      <c r="G245" s="58"/>
+      <c r="H245" s="54"/>
       <c r="I245" s="26"/>
       <c r="J245" s="26"/>
       <c r="K245" s="26"/>
@@ -14321,7 +14462,7 @@
       <c r="D246" s="27"/>
       <c r="E246" s="27"/>
       <c r="F246" s="27"/>
-      <c r="G246" s="38"/>
+      <c r="G246" s="27"/>
       <c r="H246" s="27"/>
       <c r="I246" s="27"/>
       <c r="J246" s="27"/>
@@ -14350,8 +14491,8 @@
       <c r="D247" s="27"/>
       <c r="E247" s="27"/>
       <c r="F247" s="27"/>
-      <c r="G247" s="38"/>
-      <c r="H247" s="27"/>
+      <c r="G247" s="27"/>
+      <c r="H247" s="59"/>
       <c r="I247" s="27"/>
       <c r="J247" s="27"/>
       <c r="K247" s="27"/>
@@ -14379,8 +14520,8 @@
       <c r="D248" s="27"/>
       <c r="E248" s="27"/>
       <c r="F248" s="27"/>
-      <c r="G248" s="38"/>
-      <c r="H248" s="27"/>
+      <c r="G248" s="27"/>
+      <c r="H248" s="60"/>
       <c r="I248" s="27"/>
       <c r="J248" s="27"/>
       <c r="K248" s="27"/>
@@ -14408,8 +14549,8 @@
       <c r="D249" s="27"/>
       <c r="E249" s="27"/>
       <c r="F249" s="27"/>
-      <c r="G249" s="38"/>
-      <c r="H249" s="27"/>
+      <c r="G249" s="27"/>
+      <c r="H249" s="60"/>
       <c r="I249" s="27"/>
       <c r="J249" s="27"/>
       <c r="K249" s="27"/>
@@ -14435,9 +14576,9 @@
       <c r="B250" s="27"/>
       <c r="C250" s="27"/>
       <c r="D250" s="27"/>
-      <c r="E250" s="27"/>
+      <c r="E250" s="61"/>
       <c r="F250" s="27"/>
-      <c r="G250" s="38"/>
+      <c r="G250" s="27"/>
       <c r="H250" s="27"/>
       <c r="I250" s="27"/>
       <c r="J250" s="27"/>
@@ -14464,9 +14605,9 @@
       <c r="B251" s="27"/>
       <c r="C251" s="27"/>
       <c r="D251" s="27"/>
-      <c r="E251" s="27"/>
-      <c r="F251" s="27"/>
-      <c r="G251" s="38"/>
+      <c r="E251" s="61"/>
+      <c r="F251" s="35"/>
+      <c r="G251" s="27"/>
       <c r="H251" s="27"/>
       <c r="I251" s="27"/>
       <c r="J251" s="27"/>
@@ -14493,9 +14634,9 @@
       <c r="B252" s="27"/>
       <c r="C252" s="27"/>
       <c r="D252" s="27"/>
-      <c r="E252" s="27"/>
-      <c r="F252" s="27"/>
-      <c r="G252" s="38"/>
+      <c r="E252" s="61"/>
+      <c r="F252" s="35"/>
+      <c r="G252" s="27"/>
       <c r="H252" s="27"/>
       <c r="I252" s="27"/>
       <c r="J252" s="27"/>
@@ -14524,7 +14665,7 @@
       <c r="D253" s="27"/>
       <c r="E253" s="27"/>
       <c r="F253" s="27"/>
-      <c r="G253" s="38"/>
+      <c r="G253" s="27"/>
       <c r="H253" s="27"/>
       <c r="I253" s="27"/>
       <c r="J253" s="27"/>
@@ -14553,7 +14694,7 @@
       <c r="D254" s="27"/>
       <c r="E254" s="27"/>
       <c r="F254" s="27"/>
-      <c r="G254" s="38"/>
+      <c r="G254" s="27"/>
       <c r="H254" s="27"/>
       <c r="I254" s="27"/>
       <c r="J254" s="27"/>
@@ -14582,7 +14723,7 @@
       <c r="D255" s="27"/>
       <c r="E255" s="27"/>
       <c r="F255" s="27"/>
-      <c r="G255" s="38"/>
+      <c r="G255" s="27"/>
       <c r="H255" s="27"/>
       <c r="I255" s="27"/>
       <c r="J255" s="27"/>
